--- a/assets/data.XLSX
+++ b/assets/data.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Creen\Desktop\genesis-tower\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30143D2D-7D57-4BE8-953A-669B7465ADFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA7A3C5-F407-430E-9820-380C56413795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -133,6 +133,111 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1009650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>543704</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF2922E6-E552-2085-B33D-0DAAB6CE80E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="869950" y="368301"/>
+          <a:ext cx="749300" cy="410353"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>107951</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1155700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>667839</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70301EF8-3C45-6DEF-D0FA-B086F3183368}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="996951"/>
+          <a:ext cx="1022350" cy="559888"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -401,11 +506,12 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
     <col min="3" max="3" width="12.81640625" customWidth="1"/>
     <col min="4" max="4" width="18.1796875" customWidth="1"/>
   </cols>
@@ -427,7 +533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -440,7 +546,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -453,7 +559,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -464,7 +570,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="68.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -475,5 +581,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/assets/data.XLSX
+++ b/assets/data.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Creen\Desktop\genesis-tower\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA7A3C5-F407-430E-9820-380C56413795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C258C85-A675-4B83-B840-DD7D7017F933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Nr.</t>
   </si>
@@ -42,13 +42,25 @@
     <t>3D</t>
   </si>
   <si>
-    <t>h30 x 30 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40 x 40 cm </t>
-  </si>
-  <si>
     <t>Tabla perforata vopsita electrostatic</t>
+  </si>
+  <si>
+    <t>assets/image1.jpg</t>
+  </si>
+  <si>
+    <t>assets/image2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400 x 400 mm </t>
+  </si>
+  <si>
+    <t>400 x 300 mm</t>
+  </si>
+  <si>
+    <t>assets/model1.glb</t>
+  </si>
+  <si>
+    <t>assets/model2.glb</t>
   </si>
 </sst>
 </file>
@@ -133,111 +145,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>260350</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1009650</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>543704</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF2922E6-E552-2085-B33D-0DAAB6CE80E4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="869950" y="368301"/>
-          <a:ext cx="749300" cy="410353"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>107951</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1155700</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>667839</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70301EF8-3C45-6DEF-D0FA-B086F3183368}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="742950" y="996951"/>
-          <a:ext cx="1022350" cy="559888"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -506,7 +413,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -514,6 +421,7 @@
     <col min="2" max="2" width="18.81640625" customWidth="1"/>
     <col min="3" max="3" width="12.81640625" customWidth="1"/>
     <col min="4" max="4" width="18.1796875" customWidth="1"/>
+    <col min="5" max="5" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.5" x14ac:dyDescent="0.35">
@@ -534,46 +442,46 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
+      <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="68.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -581,6 +489,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/assets/data.XLSX
+++ b/assets/data.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Creen\Desktop\genesis-tower\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C258C85-A675-4B83-B840-DD7D7017F933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57823A60-B414-48F3-BBD2-CD75FA6871DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,27 +92,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -121,13 +106,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -413,7 +398,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
